--- a/Analysis/WSAP/wsap_complete_analysis.xlsx
+++ b/Analysis/WSAP/wsap_complete_analysis.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,26 +506,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>R_42Ga7yjlA5oLJCd</t>
+          <t>R_4EEZWAH8SF10F8e</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.05555555555555558</v>
+        <v>-0.02777777777777779</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D2" t="n">
         <v>0.9444444444444444</v>
       </c>
       <c r="E2" t="n">
-        <v>-307.3031250033528</v>
+        <v>-509.4242424245811</v>
       </c>
       <c r="F2" t="n">
-        <v>486.996874993667</v>
+        <v>1215.242424242396</v>
       </c>
       <c r="G2" t="n">
-        <v>794.2999999970198</v>
+        <v>1724.666666666977</v>
       </c>
       <c r="H2" t="n">
         <v>54</v>
@@ -551,26 +551,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>R_9j8Niq4DZA1y7Op</t>
+          <t>R_4AKE20ENCrCGxUl</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3055555555555556</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E3" t="n">
-        <v>-66.81424148604071</v>
+        <v>-200.3587499968708</v>
       </c>
       <c r="F3" t="n">
-        <v>839.421052631579</v>
+        <v>1098.760000005364</v>
       </c>
       <c r="G3" t="n">
-        <v>906.2352941176197</v>
+        <v>1299.118750002235</v>
       </c>
       <c r="H3" t="n">
         <v>54</v>
@@ -596,26 +596,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>R_92Xn58Elv9fCbLJ</t>
+          <t>R_9aZFWvCRMGokDwl</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02777777777777779</v>
+        <v>-0.4166666666666666</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="E4" t="n">
-        <v>-662.2199999993401</v>
+        <v>-211.3746130030822</v>
       </c>
       <c r="F4" t="n">
-        <v>358.4799999999149</v>
+        <v>696.9411764706019</v>
       </c>
       <c r="G4" t="n">
-        <v>1020.699999999255</v>
+        <v>908.3157894736842</v>
       </c>
       <c r="H4" t="n">
         <v>54</v>
@@ -641,26 +641,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>R_4pWgwYKsPFaTWcp</t>
+          <t>R_4eV7QBpawwD6eOr</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08333333333333337</v>
+        <v>-0.02777777777777779</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="E5" t="n">
-        <v>310.8142856575193</v>
+        <v>-20.66254547639326</v>
       </c>
       <c r="F5" t="n">
-        <v>446.647619054431</v>
+        <v>77.89199996948243</v>
       </c>
       <c r="G5" t="n">
-        <v>135.8333333969116</v>
+        <v>98.55454544587569</v>
       </c>
       <c r="H5" t="n">
         <v>54</v>
@@ -686,26 +686,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>R_4ELN7Q0714WIXDZ</t>
+          <t>R_91jRA37lX3YUEbP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01904761904761909</v>
+        <v>-0.0888888888888888</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6857142857142857</v>
+        <v>0.8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="E6" t="n">
-        <v>61.93333328673339</v>
+        <v>-405.7071428469249</v>
       </c>
       <c r="F6" t="n">
-        <v>880.5333333214124</v>
+        <v>790.050000003406</v>
       </c>
       <c r="G6" t="n">
-        <v>818.6000000346791</v>
+        <v>1195.757142850331</v>
       </c>
       <c r="H6" t="n">
         <v>54</v>
@@ -731,35 +731,35 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>R_9fPoQx2VAiJtvot</t>
+          <t>R_4PvVrWZ4ldg9ZuE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1507936507936508</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>-115.7633333325387</v>
+        <v>-113.9999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>1038.910000002384</v>
+        <v>962.3333333333334</v>
       </c>
       <c r="G7" t="n">
-        <v>1154.673333334923</v>
+        <v>1076.333333333333</v>
       </c>
       <c r="H7" t="n">
         <v>54</v>
       </c>
       <c r="I7" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K7" t="n">
         <v>18</v>
@@ -769,39 +769,39 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Valid: 53/54 trials</t>
+          <t>Valid: 54/54 trials</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>R_4EEZWAH8SF10F8e</t>
+          <t>R_9Y3cXt4ARx4xD6T</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02777777777777779</v>
+        <v>-0.03594771241830064</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="E8" t="n">
-        <v>-509.4242424245811</v>
+        <v>215.6402597399672</v>
       </c>
       <c r="F8" t="n">
-        <v>1215.242424242396</v>
+        <v>1246.704545454545</v>
       </c>
       <c r="G8" t="n">
-        <v>1724.666666666977</v>
+        <v>1031.064285714578</v>
       </c>
       <c r="H8" t="n">
         <v>54</v>
       </c>
       <c r="I8" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J8" t="n">
         <v>18</v>
@@ -810,37 +810,37 @@
         <v>18</v>
       </c>
       <c r="L8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Valid: 54/54 trials</t>
+          <t>Valid: 53/54 trials</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>R_4AKE20ENCrCGxUl</t>
+          <t>R_9N32winq5vbF1El</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.02777777777777779</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E9" t="n">
-        <v>-200.3587499968708</v>
+        <v>-86.37090909093286</v>
       </c>
       <c r="F9" t="n">
-        <v>1098.760000005364</v>
+        <v>1015.720000000019</v>
       </c>
       <c r="G9" t="n">
-        <v>1299.118750002235</v>
+        <v>1102.090909090952</v>
       </c>
       <c r="H9" t="n">
         <v>54</v>
@@ -866,26 +866,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>R_9aZFWvCRMGokDwl</t>
+          <t>R_9uYGNjx9yWaODxD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.4166666666666666</v>
+        <v>0.1944444444444445</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="E10" t="n">
-        <v>-211.3746130030822</v>
+        <v>45.87999999636691</v>
       </c>
       <c r="F10" t="n">
-        <v>696.9411764706019</v>
+        <v>860.6000000011353</v>
       </c>
       <c r="G10" t="n">
-        <v>908.3157894736842</v>
+        <v>814.7200000047684</v>
       </c>
       <c r="H10" t="n">
         <v>54</v>
@@ -911,161 +911,163 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>R_4eV7QBpawwD6eOr</t>
+          <t>R_9OPvlHXlbPmz754</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02777777777777779</v>
+        <v>0.09747899159663864</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="E11" t="n">
-        <v>-20.66254547639326</v>
+        <v>-127.3700757583913</v>
       </c>
       <c r="F11" t="n">
-        <v>77.89199996948243</v>
+        <v>1412.020833332247</v>
       </c>
       <c r="G11" t="n">
-        <v>98.55454544587569</v>
+        <v>1539.390909090638</v>
       </c>
       <c r="H11" t="n">
         <v>54</v>
       </c>
       <c r="I11" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" t="n">
         <v>18</v>
       </c>
       <c r="L11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Valid: 54/54 trials</t>
+          <t>Valid: 52/54 trials</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>R_91jRA37lX3YUEbP</t>
+          <t>R_9x36NNwdNT2QnEB</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0888888888888888</v>
+        <v>-0.05555555555555547</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D12" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="E12" t="n">
-        <v>-405.7071428469249</v>
+        <v>-433.7166666641831</v>
       </c>
       <c r="F12" t="n">
-        <v>790.050000003406</v>
+        <v>1075.299999999007</v>
       </c>
       <c r="G12" t="n">
-        <v>1195.757142850331</v>
+        <v>1509.01666666319</v>
       </c>
       <c r="H12" t="n">
         <v>54</v>
       </c>
       <c r="I12" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J12" t="n">
         <v>18</v>
       </c>
       <c r="K12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L12" t="n">
         <v>18</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Valid: 53/54 trials</t>
+          <t>Valid: 54/54 trials</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>R_4PvVrWZ4ldg9ZuE</t>
+          <t>R_4DfI1n39Bzpi2xH</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2500000000000001</v>
+        <v>-0.05555555555555558</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-19.85923073291769</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1160.130769252777</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1179.989999985695</v>
+      </c>
       <c r="H13" t="n">
         <v>54</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Valid: 1/54 trials</t>
+          <t>Valid: 54/54 trials</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>R_9Y3cXt4ARx4xD6T</t>
+          <t>R_9emki3uWpm88jEt</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03594771241830064</v>
+        <v>0.05555555555555558</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6111111111111112</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="E14" t="n">
-        <v>215.6402597399672</v>
-      </c>
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>1246.704545454545</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1031.064285714578</v>
-      </c>
+        <v>999.366666674614</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
         <v>54</v>
       </c>
       <c r="I14" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J14" t="n">
         <v>18</v>
@@ -1074,262 +1076,262 @@
         <v>18</v>
       </c>
       <c r="L14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Valid: 53/54 trials</t>
+          <t>Valid: 54/54 trials</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>R_9N32winq5vbF1El</t>
+          <t>R_91tsT1u49aBUhks</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02777777777777779</v>
+        <v>-0.006349206349206327</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E15" t="n">
-        <v>-86.37090909093286</v>
+        <v>-180.0930555573216</v>
       </c>
       <c r="F15" t="n">
-        <v>1015.720000000019</v>
+        <v>864.8444444426784</v>
       </c>
       <c r="G15" t="n">
-        <v>1102.090909090952</v>
+        <v>1044.9375</v>
       </c>
       <c r="H15" t="n">
         <v>54</v>
       </c>
       <c r="I15" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" t="n">
         <v>18</v>
       </c>
       <c r="K15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L15" t="n">
         <v>18</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Valid: 54/54 trials</t>
+          <t>Valid: 53/54 trials</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>R_9uYGNjx9yWaODxD</t>
+          <t>R_9LAP8tEg6HUmoat</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1944444444444445</v>
+        <v>-0.01269841269841276</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E16" t="n">
-        <v>45.87999999636691</v>
+        <v>1.184210526315837</v>
       </c>
       <c r="F16" t="n">
-        <v>860.6000000011353</v>
+        <v>1452.684210526316</v>
       </c>
       <c r="G16" t="n">
-        <v>814.7200000047684</v>
+        <v>1451.5</v>
       </c>
       <c r="H16" t="n">
         <v>54</v>
       </c>
       <c r="I16" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J16" t="n">
         <v>18</v>
       </c>
       <c r="K16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16" t="n">
         <v>18</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Valid: 54/54 trials</t>
+          <t>Valid: 53/54 trials</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>R_9OPvlHXlbPmz754</t>
+          <t>R_4GCVAoEofofJmxX</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.09747899159663864</v>
+        <v>0.05555555555555558</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6857142857142857</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E17" t="n">
-        <v>-127.3700757583913</v>
+        <v>-134.3149350618388</v>
       </c>
       <c r="F17" t="n">
-        <v>1412.020833332247</v>
+        <v>881.7636363939805</v>
       </c>
       <c r="G17" t="n">
-        <v>1539.390909090638</v>
+        <v>1016.078571455819</v>
       </c>
       <c r="H17" t="n">
         <v>54</v>
       </c>
       <c r="I17" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K17" t="n">
         <v>18</v>
       </c>
       <c r="L17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Valid: 52/54 trials</t>
+          <t>Valid: 54/54 trials</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>R_4rHDTNQ0TLPg3iz</t>
+          <t>R_4dtvPF6tKUsY2Dr</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.05555555555555558</v>
+        <v>0.04761904761904767</v>
       </c>
       <c r="C18" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D18" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.7222222222222222</v>
-      </c>
       <c r="E18" t="n">
-        <v>-18.07083335270482</v>
+        <v>2.839999999953534</v>
       </c>
       <c r="F18" t="n">
-        <v>391.2541666552424</v>
+        <v>1091.24</v>
       </c>
       <c r="G18" t="n">
-        <v>409.3250000079473</v>
+        <v>1088.400000000046</v>
       </c>
       <c r="H18" t="n">
         <v>54</v>
       </c>
       <c r="I18" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J18" t="n">
         <v>18</v>
       </c>
       <c r="K18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" t="n">
         <v>18</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Valid: 54/54 trials</t>
+          <t>Valid: 53/54 trials</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>R_9x36NNwdNT2QnEB</t>
+          <t>R_9bTZgIxUTHOBB65</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.05555555555555547</v>
+        <v>0.008403361344537785</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="E19" t="n">
-        <v>-433.7166666641831</v>
+        <v>-505.1200000000467</v>
       </c>
       <c r="F19" t="n">
-        <v>1075.299999999007</v>
+        <v>1318.08</v>
       </c>
       <c r="G19" t="n">
-        <v>1509.01666666319</v>
+        <v>1823.200000000047</v>
       </c>
       <c r="H19" t="n">
         <v>54</v>
       </c>
       <c r="I19" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K19" t="n">
         <v>18</v>
       </c>
       <c r="L19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Valid: 54/54 trials</t>
+          <t>Valid: 52/54 trials</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>R_4DfI1n39Bzpi2xH</t>
+          <t>R_4E1hPlVcrRYDEgI</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.05555555555555558</v>
+        <v>0.02777777777777779</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.85923073291769</v>
+        <v>-1330.857142869064</v>
       </c>
       <c r="F20" t="n">
-        <v>1160.130769252777</v>
+        <v>959.9428571428572</v>
       </c>
       <c r="G20" t="n">
-        <v>1179.989999985695</v>
+        <v>2290.800000011921</v>
       </c>
       <c r="H20" t="n">
         <v>54</v>
@@ -1355,23 +1357,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>R_9emki3uWpm88jEt</t>
+          <t>R_9HiPuZ7ggaUWYXm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.05555555555555558</v>
+        <v>-0.02777777777777779</v>
       </c>
       <c r="C21" t="n">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>-33.59428570696286</v>
+      </c>
       <c r="F21" t="n">
-        <v>999.366666674614</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
+        <v>1060.005714287077</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1093.59999999404</v>
+      </c>
       <c r="H21" t="n">
         <v>54</v>
       </c>
@@ -1396,26 +1402,26 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>R_9gLQpOlUhCZbZf0</t>
+          <t>R_4npneE7C0d2fzFf</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.08333333333333337</v>
+        <v>-0.1111111111111112</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E22" t="n">
-        <v>-169.7126934976538</v>
+        <v>-282.3692307691664</v>
       </c>
       <c r="F22" t="n">
-        <v>1147.057894737509</v>
+        <v>952.2307692307871</v>
       </c>
       <c r="G22" t="n">
-        <v>1316.770588235163</v>
+        <v>1234.599999999954</v>
       </c>
       <c r="H22" t="n">
         <v>54</v>
@@ -1441,116 +1447,116 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>R_91tsT1u49aBUhks</t>
+          <t>R_95Avzk7ufiikhMK</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.006349206349206327</v>
+        <v>-0.1944444444444444</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7714285714285715</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="E23" t="n">
-        <v>-180.0930555573216</v>
+        <v>-62.14399999510158</v>
       </c>
       <c r="F23" t="n">
-        <v>864.8444444426784</v>
+        <v>953.0560000038147</v>
       </c>
       <c r="G23" t="n">
-        <v>1044.9375</v>
+        <v>1015.199999998916</v>
       </c>
       <c r="H23" t="n">
         <v>54</v>
       </c>
       <c r="I23" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J23" t="n">
         <v>18</v>
       </c>
       <c r="K23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L23" t="n">
         <v>18</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Valid: 53/54 trials</t>
+          <t>Valid: 54/54 trials</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>R_9LAP8tEg6HUmoat</t>
+          <t>R_4QWwuNV77zEYamm</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.01269841269841276</v>
+        <v>-0.1944444444444445</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5428571428571428</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="E24" t="n">
-        <v>1.184210526315837</v>
+        <v>-31.37142857148626</v>
       </c>
       <c r="F24" t="n">
-        <v>1452.684210526316</v>
+        <v>840.8666666666201</v>
       </c>
       <c r="G24" t="n">
-        <v>1451.5</v>
+        <v>872.2380952381063</v>
       </c>
       <c r="H24" t="n">
         <v>54</v>
       </c>
       <c r="I24" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J24" t="n">
         <v>18</v>
       </c>
       <c r="K24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L24" t="n">
         <v>18</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Valid: 53/54 trials</t>
+          <t>Valid: 54/54 trials</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>R_4GCVAoEofofJmxX</t>
+          <t>R_4Nn2YPE5XSoLk77</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.05555555555555558</v>
+        <v>0.02777777777777779</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E25" t="n">
-        <v>-134.3149350618388</v>
+        <v>-268.99556650214</v>
       </c>
       <c r="F25" t="n">
-        <v>881.7636363939805</v>
+        <v>1103.475862068863</v>
       </c>
       <c r="G25" t="n">
-        <v>1016.078571455819</v>
+        <v>1372.471428571003</v>
       </c>
       <c r="H25" t="n">
         <v>54</v>
@@ -1576,218 +1582,206 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>R_4dtvPF6tKUsY2Dr</t>
+          <t>R_92mbrhLaUBLIZyA</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.04761904761904767</v>
+        <v>-0.1388888888888888</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="D26" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="E26" t="n">
-        <v>2.839999999953534</v>
+        <v>-117.0495356037426</v>
       </c>
       <c r="F26" t="n">
-        <v>1091.24</v>
+        <v>898.421052631579</v>
       </c>
       <c r="G26" t="n">
-        <v>1088.400000000046</v>
+        <v>1015.470588235322</v>
       </c>
       <c r="H26" t="n">
         <v>54</v>
       </c>
       <c r="I26" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J26" t="n">
         <v>18</v>
       </c>
       <c r="K26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L26" t="n">
         <v>18</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Valid: 53/54 trials</t>
+          <t>Valid: 54/54 trials</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>R_9bTZgIxUTHOBB65</t>
+          <t>R_41tTqc4rClQAQ4c</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.008403361344537785</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.5</v>
       </c>
       <c r="E27" t="n">
-        <v>-505.1200000000467</v>
+        <v>-253.0685606094811</v>
       </c>
       <c r="F27" t="n">
-        <v>1318.08</v>
+        <v>978.5041666670392</v>
       </c>
       <c r="G27" t="n">
-        <v>1823.200000000047</v>
+        <v>1231.57272727652</v>
       </c>
       <c r="H27" t="n">
         <v>54</v>
       </c>
       <c r="I27" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J27" t="n">
+        <v>18</v>
+      </c>
+      <c r="K27" t="n">
         <v>17</v>
       </c>
-      <c r="K27" t="n">
-        <v>18</v>
-      </c>
       <c r="L27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Valid: 52/54 trials</t>
+          <t>Valid: 53/54 trials</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>R_459tvSmsiMQmAJb</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
+          <t>R_49TyR8AUyP9f0KR</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.02777777777777779</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-393.0112727121873</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1112.815999984741</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1505.827272696929</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Error: No trial data available</t>
+          <t>Valid: 54/54 trials</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>R_9GEAlR8ckucpR5i</t>
+          <t>R_99UYrIivDcdeF7r</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.02777777777777779</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E29" t="n">
-        <v>-11.05665635250671</v>
+        <v>-28.81896551725936</v>
       </c>
       <c r="F29" t="n">
-        <v>163.4315789247814</v>
+        <v>1439.931034482799</v>
       </c>
       <c r="G29" t="n">
-        <v>174.4882352772881</v>
+        <v>1468.750000000058</v>
       </c>
       <c r="H29" t="n">
         <v>54</v>
       </c>
       <c r="I29" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L29" t="n">
         <v>18</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Valid: 54/54 trials</t>
+          <t>Valid: 51/54 trials</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>R_95AaIqXMdbZ4Fhr</t>
+          <t>R_9d0I0cLEUygFnzD</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2352941176470589</v>
+        <v>-0.15</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.6</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.75</v>
       </c>
       <c r="E30" t="n">
-        <v>-6.739166664083768</v>
+        <v>-370.7357142857454</v>
       </c>
       <c r="F30" t="n">
-        <v>1403.62083333234</v>
+        <v>1101.142857142813</v>
       </c>
       <c r="G30" t="n">
-        <v>1410.359999996424</v>
+        <v>1471.878571428558</v>
       </c>
       <c r="H30" t="n">
         <v>54</v>
@@ -1796,13 +1790,13 @@
         <v>51</v>
       </c>
       <c r="J30" t="n">
+        <v>18</v>
+      </c>
+      <c r="K30" t="n">
+        <v>17</v>
+      </c>
+      <c r="L30" t="n">
         <v>16</v>
-      </c>
-      <c r="K30" t="n">
-        <v>18</v>
-      </c>
-      <c r="L30" t="n">
-        <v>17</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -1813,26 +1807,26 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>R_4lPSocYI5nk7Coh</t>
+          <t>R_47kRU4DvHWNnjGG</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-0.111111111111111</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E31" t="n">
-        <v>-17.76846154148757</v>
+        <v>-70.42750001400714</v>
       </c>
       <c r="F31" t="n">
-        <v>1173.661538465665</v>
+        <v>837.8349999964237</v>
       </c>
       <c r="G31" t="n">
-        <v>1191.430000007153</v>
+        <v>908.2625000104308</v>
       </c>
       <c r="H31" t="n">
         <v>54</v>
@@ -1858,128 +1852,116 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>R_4rHse7kHHEjzHly</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
+          <t>R_9cj5AYT2isbQ025</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.065359477124183</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-702.0718750040978</v>
+      </c>
+      <c r="F32" t="n">
+        <v>945.9781249929219</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1648.04999999702</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Error: No trial data available</t>
+          <t>Valid: 53/54 trials</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>R_4DYHJAe9FwcAbYM</t>
+          <t>R_96nUPcB7vcJX3jf</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.08823529411764708</v>
+        <v>-0.1666666666666666</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="E33" t="n">
-        <v>-255.8692857146527</v>
+        <v>15.13125000002913</v>
       </c>
       <c r="F33" t="n">
-        <v>1108.094999999367</v>
+        <v>617.1999999999767</v>
       </c>
       <c r="G33" t="n">
-        <v>1363.96428571402</v>
+        <v>602.0687499999476</v>
       </c>
       <c r="H33" t="n">
         <v>54</v>
       </c>
       <c r="I33" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J33" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K33" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L33" t="n">
         <v>18</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Valid: 52/54 trials</t>
+          <t>Valid: 54/54 trials</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>R_4E1hPlVcrRYDEgI</t>
+          <t>R_4af1NjqrrNzcgut</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02777777777777779</v>
+        <v>0.05555555555555558</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="E34" t="n">
-        <v>-1330.857142869064</v>
+        <v>15.58249999969269</v>
       </c>
       <c r="F34" t="n">
-        <v>959.9428571428572</v>
+        <v>791.0449999998324</v>
       </c>
       <c r="G34" t="n">
-        <v>2290.800000011921</v>
+        <v>775.4625000001397</v>
       </c>
       <c r="H34" t="n">
         <v>54</v>
@@ -2005,140 +1987,116 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>R_9IrA4sK4uNKxOU1</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
+          <t>R_9ctFQKbw2qIyZBw</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.09411764705882353</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-344.103571338313</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1099.910714294229</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1444.014285632542</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Error: No trial data available</t>
+          <t>Valid: 52/54 trials</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>R_4flYM0NAGQpPrrZ</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
+          <t>R_4BsQya8zBjRULSx</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.05555555555555558</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-284.9999999999427</v>
+      </c>
+      <c r="F36" t="n">
+        <v>658.4999999999642</v>
+      </c>
+      <c r="G36" t="n">
+        <v>943.4999999999069</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Error: No trial data available</t>
+          <t>Valid: 54/54 trials</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>R_9HiPuZ7ggaUWYXm</t>
+          <t>R_9UVGly5LAKAE4DH</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.02777777777777779</v>
+        <v>0.02777777777777779</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="E37" t="n">
-        <v>-33.59428570696286</v>
+        <v>-246.1454545454772</v>
       </c>
       <c r="F37" t="n">
-        <v>1060.005714287077</v>
+        <v>853.387878787732</v>
       </c>
       <c r="G37" t="n">
-        <v>1093.59999999404</v>
+        <v>1099.533333333209</v>
       </c>
       <c r="H37" t="n">
         <v>54</v>
@@ -2164,26 +2122,26 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>R_4npneE7C0d2fzFf</t>
+          <t>R_9hLtTGFf64ROzgA</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>-0.1111111111111112</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E38" t="n">
-        <v>-282.3692307691664</v>
+        <v>-173.5041666527588</v>
       </c>
       <c r="F38" t="n">
-        <v>952.2307692307871</v>
+        <v>834.4208333392938</v>
       </c>
       <c r="G38" t="n">
-        <v>1234.599999999954</v>
+        <v>1007.924999992053</v>
       </c>
       <c r="H38" t="n">
         <v>54</v>
@@ -2209,26 +2167,26 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>R_95Avzk7ufiikhMK</t>
+          <t>R_438xPgSQurWsGJ7</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.1944444444444444</v>
+        <v>-0.1111111111111112</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E39" t="n">
-        <v>-62.14399999510158</v>
+        <v>-73.02307692303043</v>
       </c>
       <c r="F39" t="n">
-        <v>953.0560000038147</v>
+        <v>1060.576923076923</v>
       </c>
       <c r="G39" t="n">
-        <v>1015.199999998916</v>
+        <v>1133.599999999954</v>
       </c>
       <c r="H39" t="n">
         <v>54</v>
@@ -2254,80 +2212,80 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>R_4QWwuNV77zEYamm</t>
+          <t>R_5EnHXfM9Ih1jcUw</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.1944444444444445</v>
+        <v>0.1603174603174603</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="D40" t="n">
         <v>0.6111111111111112</v>
       </c>
       <c r="E40" t="n">
-        <v>-31.37142857148626</v>
+        <v>-56.62453703527103</v>
       </c>
       <c r="F40" t="n">
-        <v>840.8666666666201</v>
+        <v>1143.862962917045</v>
       </c>
       <c r="G40" t="n">
-        <v>872.2380952381063</v>
+        <v>1200.487499952316</v>
       </c>
       <c r="H40" t="n">
         <v>54</v>
       </c>
       <c r="I40" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J40" t="n">
         <v>18</v>
       </c>
       <c r="K40" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L40" t="n">
         <v>18</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Valid: 54/54 trials</t>
+          <t>Valid: 53/54 trials</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>R_4Nn2YPE5XSoLk77</t>
+          <t>R_4ooRca600URzSMF</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.02777777777777779</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8055555555555556</v>
+        <v>0.8</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="E41" t="n">
-        <v>-268.99556650214</v>
+        <v>-413.464285714319</v>
       </c>
       <c r="F41" t="n">
-        <v>1103.475862068863</v>
+        <v>1306.392857142824</v>
       </c>
       <c r="G41" t="n">
-        <v>1372.471428571003</v>
+        <v>1719.857142857143</v>
       </c>
       <c r="H41" t="n">
         <v>54</v>
       </c>
       <c r="I41" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J41" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K41" t="n">
         <v>18</v>
@@ -2337,180 +2295,168 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Valid: 54/54 trials</t>
+          <t>Valid: 53/54 trials</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>R_92mbrhLaUBLIZyA</t>
+          <t>R_9z60gjDTdtBwz7i</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.1388888888888888</v>
+        <v>-0.4587301587301587</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="E42" t="n">
-        <v>-117.0495356037426</v>
+        <v>91.19607843139988</v>
       </c>
       <c r="F42" t="n">
-        <v>898.421052631579</v>
+        <v>915.5294117647333</v>
       </c>
       <c r="G42" t="n">
-        <v>1015.470588235322</v>
+        <v>824.3333333333334</v>
       </c>
       <c r="H42" t="n">
         <v>54</v>
       </c>
       <c r="I42" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J42" t="n">
         <v>18</v>
       </c>
       <c r="K42" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L42" t="n">
         <v>18</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Valid: 54/54 trials</t>
+          <t>Valid: 53/54 trials</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>R_4lCiksiXKcfJDNf</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
+          <t>R_4z5hWHzjGPmlo3v</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.1045751633986928</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-109.3333333334963</v>
+      </c>
+      <c r="F43" t="n">
+        <v>727.1666666666201</v>
+      </c>
+      <c r="G43" t="n">
+        <v>836.5000000001164</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Error: No trial data available</t>
+          <t>Valid: 52/54 trials</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>R_41tTqc4rClQAQ4c</t>
+          <t>R_4R46XO9OwMarEXe</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1857142857142857</v>
+        <v>-0.1550802139037433</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6857142857142857</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="E44" t="n">
-        <v>-253.0685606094811</v>
+        <v>-436.2013888888889</v>
       </c>
       <c r="F44" t="n">
-        <v>978.5041666670392</v>
+        <v>1544.887499998013</v>
       </c>
       <c r="G44" t="n">
-        <v>1231.57272727652</v>
+        <v>1981.088888886902</v>
       </c>
       <c r="H44" t="n">
         <v>54</v>
       </c>
       <c r="I44" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J44" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K44" t="n">
+        <v>16</v>
+      </c>
+      <c r="L44" t="n">
         <v>17</v>
       </c>
-      <c r="L44" t="n">
-        <v>18</v>
-      </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Valid: 53/54 trials</t>
+          <t>Valid: 50/54 trials</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>R_49TyR8AUyP9f0KR</t>
+          <t>R_4pyzOQaqk31zidB</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.02777777777777779</v>
+        <v>-0.08333333333333337</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E45" t="n">
-        <v>-393.0112727121873</v>
+        <v>-83.23188852710251</v>
       </c>
       <c r="F45" t="n">
-        <v>1112.815999984741</v>
+        <v>285.647058837554</v>
       </c>
       <c r="G45" t="n">
-        <v>1505.827272696929</v>
+        <v>368.8789473646565</v>
       </c>
       <c r="H45" t="n">
         <v>54</v>
@@ -2536,522 +2482,45 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>R_99UYrIivDcdeF7r</t>
+          <t>R_9RXtm3TtL486t6z</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.101010101010101</v>
+        <v>-0.1680672268907563</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="E46" t="n">
-        <v>-28.81896551725936</v>
+        <v>-119.9880000019074</v>
       </c>
       <c r="F46" t="n">
-        <v>1439.931034482799</v>
+        <v>1008.692000017166</v>
       </c>
       <c r="G46" t="n">
-        <v>1468.750000000058</v>
+        <v>1128.680000019074</v>
       </c>
       <c r="H46" t="n">
         <v>54</v>
       </c>
       <c r="I46" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J46" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K46" t="n">
         <v>17</v>
       </c>
       <c r="L46" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Valid: 51/54 trials</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>R_9d0I0cLEUygFnzD</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E47" t="n">
-        <v>-370.7357142857454</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1101.142857142813</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1471.878571428558</v>
-      </c>
-      <c r="H47" t="n">
-        <v>54</v>
-      </c>
-      <c r="I47" t="n">
-        <v>51</v>
-      </c>
-      <c r="J47" t="n">
-        <v>18</v>
-      </c>
-      <c r="K47" t="n">
-        <v>17</v>
-      </c>
-      <c r="L47" t="n">
-        <v>16</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Valid: 51/54 trials</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>R_425z6FKj0bv5S0N</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Error: No trial data available</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>R_9kBu3A4VzYEc7u4</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>Error: No trial data available</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>R_47kRU4DvHWNnjGG</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>-0.111111111111111</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E50" t="n">
-        <v>-70.42750001400714</v>
-      </c>
-      <c r="F50" t="n">
-        <v>837.8349999964237</v>
-      </c>
-      <c r="G50" t="n">
-        <v>908.2625000104308</v>
-      </c>
-      <c r="H50" t="n">
-        <v>54</v>
-      </c>
-      <c r="I50" t="n">
-        <v>54</v>
-      </c>
-      <c r="J50" t="n">
-        <v>18</v>
-      </c>
-      <c r="K50" t="n">
-        <v>18</v>
-      </c>
-      <c r="L50" t="n">
-        <v>18</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>Valid: 54/54 trials</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>R_9cj5AYT2isbQ025</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.065359477124183</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="E51" t="n">
-        <v>-702.0718750040978</v>
-      </c>
-      <c r="F51" t="n">
-        <v>945.9781249929219</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1648.04999999702</v>
-      </c>
-      <c r="H51" t="n">
-        <v>54</v>
-      </c>
-      <c r="I51" t="n">
-        <v>53</v>
-      </c>
-      <c r="J51" t="n">
-        <v>18</v>
-      </c>
-      <c r="K51" t="n">
-        <v>18</v>
-      </c>
-      <c r="L51" t="n">
-        <v>17</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Valid: 53/54 trials</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>R_4emUmach5eEaD7j</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Error: No trial data available</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>R_4LTZEyvJAjeBq3o</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>Error: No trial data available</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>R_9EoZrU2zlZGVxmh</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>Error: No trial data available</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>R_9FLpP7aU380tJw8</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>Error: No trial data available</t>
+          <t>Valid: 52/54 trials</t>
         </is>
       </c>
     </row>
@@ -3094,7 +2563,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -3106,7 +2575,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -3118,7 +2587,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3134,7 +2603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-0.018</t>
+          <t>-0.027</t>
         </is>
       </c>
     </row>
@@ -3146,7 +2615,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.128</t>
+          <t>0.142</t>
         </is>
       </c>
     </row>
@@ -3158,7 +2627,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-0.417</t>
+          <t>-0.459</t>
         </is>
       </c>
     </row>
@@ -3182,7 +2651,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-0.013</t>
+          <t>-0.028</t>
         </is>
       </c>
     </row>
@@ -3198,7 +2667,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-189.559</t>
+          <t>-201.047</t>
         </is>
       </c>
     </row>
@@ -3210,7 +2679,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>280.468</t>
+          <t>255.637</t>
         </is>
       </c>
     </row>
@@ -3234,7 +2703,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>310.814</t>
+          <t>215.640</t>
         </is>
       </c>
     </row>
@@ -3246,7 +2715,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-117.050</t>
+          <t>-123.679</t>
         </is>
       </c>
     </row>
@@ -3261,7 +2730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3339,71 +2808,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>R_42Ga7yjlA5oLJCd</t>
+          <t>R_4EEZWAH8SF10F8e</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.4615384615384615</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="E2" t="n">
-        <v>20.58333333995608</v>
+        <v>452.2406015037245</v>
       </c>
       <c r="F2" t="n">
-        <v>494.3555555608538</v>
+        <v>1632.714285714269</v>
       </c>
       <c r="G2" t="n">
-        <v>473.7722222208977</v>
+        <v>1180.473684210545</v>
       </c>
       <c r="H2" t="n">
         <v>27</v>
       </c>
       <c r="I2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Valid: 27/27 trials</t>
+          <t>Valid: 26/27 trials</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>R_9j8Niq4DZA1y7Op</t>
+          <t>R_4AKE20ENCrCGxUl</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7777777777777777</v>
+        <v>-0.4074074074074074</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="E3" t="n">
-        <v>158.2916666666521</v>
+        <v>-181.155921063533</v>
       </c>
       <c r="F3" t="n">
-        <v>1137.666666666647</v>
+        <v>1013.412499986589</v>
       </c>
       <c r="G3" t="n">
-        <v>979.3749999999951</v>
+        <v>1194.568421050122</v>
       </c>
       <c r="H3" t="n">
         <v>27</v>
@@ -3412,13 +2881,13 @@
         <v>27</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -3429,26 +2898,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>R_92Xn58Elv9fCbLJ</t>
+          <t>R_9aZFWvCRMGokDwl</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.4814814814814815</v>
+        <v>-0.9259259259259258</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2592592592592592</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="E4" t="n">
-        <v>547.6771428570685</v>
+        <v>-137.0769230769298</v>
       </c>
       <c r="F4" t="n">
-        <v>1696.857142857143</v>
+        <v>863</v>
       </c>
       <c r="G4" t="n">
-        <v>1149.180000000074</v>
+        <v>1000.07692307693</v>
       </c>
       <c r="H4" t="n">
         <v>27</v>
@@ -3457,13 +2926,13 @@
         <v>27</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -3474,26 +2943,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>R_4pWgwYKsPFaTWcp</t>
+          <t>R_4eV7QBpawwD6eOr</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2592592592592593</v>
+        <v>-0.4814814814814815</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6296296296296297</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="E5" t="n">
-        <v>-64.26705879744361</v>
+        <v>5.656428563594829</v>
       </c>
       <c r="F5" t="n">
-        <v>818.7799999952316</v>
+        <v>220.7714285850525</v>
       </c>
       <c r="G5" t="n">
-        <v>883.0470587926752</v>
+        <v>215.1150000214577</v>
       </c>
       <c r="H5" t="n">
         <v>27</v>
@@ -3502,13 +2971,13 @@
         <v>27</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" t="n">
         <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -3519,116 +2988,116 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>R_4ELN7Q0714WIXDZ</t>
+          <t>R_91jRA37lX3YUEbP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7037037037037037</v>
+        <v>-0.3076923076923077</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8518518518518519</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="E6" t="n">
-        <v>4.005434743736146</v>
+        <v>113.4836601279922</v>
       </c>
       <c r="F6" t="n">
-        <v>816.3749999403954</v>
+        <v>1167.577777776453</v>
       </c>
       <c r="G6" t="n">
-        <v>812.3695651966592</v>
+        <v>1054.094117648461</v>
       </c>
       <c r="H6" t="n">
         <v>27</v>
       </c>
       <c r="I6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" t="n">
         <v>3</v>
       </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4</v>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Valid: 27/27 trials</t>
+          <t>Valid: 26/27 trials</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>R_9fPoQx2VAiJtvot</t>
+          <t>R_4PvVrWZ4ldg9ZuE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.9259259259259258</v>
+        <v>-0.08333333333333331</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="E7" t="n">
-        <v>409.8653846062148</v>
+        <v>-207.7622377622379</v>
       </c>
       <c r="F7" t="n">
-        <v>1534.899999991059</v>
+        <v>1553.545454545455</v>
       </c>
       <c r="G7" t="n">
-        <v>1125.034615384845</v>
+        <v>1761.307692307692</v>
       </c>
       <c r="H7" t="n">
         <v>27</v>
       </c>
       <c r="I7" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
         <v>4</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Valid: 27/27 trials</t>
+          <t>Valid: 24/27 trials</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>R_4EEZWAH8SF10F8e</t>
+          <t>R_9Y3cXt4ARx4xD6T</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.4615384615384615</v>
+        <v>-0.3076923076923077</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2692307692307692</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="E8" t="n">
-        <v>452.2406015037245</v>
+        <v>-115.2091503268157</v>
       </c>
       <c r="F8" t="n">
-        <v>1632.714285714269</v>
+        <v>1141.655555555493</v>
       </c>
       <c r="G8" t="n">
-        <v>1180.473684210545</v>
+        <v>1256.864705882309</v>
       </c>
       <c r="H8" t="n">
         <v>27</v>
@@ -3640,10 +3109,10 @@
         <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -3654,32 +3123,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>R_4AKE20ENCrCGxUl</t>
+          <t>R_9N32winq5vbF1El</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.4074074074074074</v>
+        <v>-0.3846153846153846</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E9" t="n">
-        <v>-181.155921063533</v>
+        <v>24.81944444441854</v>
       </c>
       <c r="F9" t="n">
-        <v>1013.412499986589</v>
+        <v>1008.874999999971</v>
       </c>
       <c r="G9" t="n">
-        <v>1194.568421050122</v>
+        <v>984.0555555555524</v>
       </c>
       <c r="H9" t="n">
         <v>27</v>
       </c>
       <c r="I9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -3688,37 +3157,37 @@
         <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Valid: 27/27 trials</t>
+          <t>Valid: 26/27 trials</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>R_9aZFWvCRMGokDwl</t>
+          <t>R_9uYGNjx9yWaODxD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.9259259259259258</v>
+        <v>-0.1851851851851852</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="E10" t="n">
-        <v>-137.0769230769298</v>
+        <v>-25.93977270004416</v>
       </c>
       <c r="F10" t="n">
-        <v>863</v>
+        <v>1066.272727283565</v>
       </c>
       <c r="G10" t="n">
-        <v>1000.07692307693</v>
+        <v>1092.212499983609</v>
       </c>
       <c r="H10" t="n">
         <v>27</v>
@@ -3727,13 +3196,13 @@
         <v>27</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -3744,52 +3213,48 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>R_4eV7QBpawwD6eOr</t>
+          <t>R_9OPvlHXlbPmz754</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.4814814814814815</v>
+        <v>-1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2592592592592592</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5.656428563594829</v>
-      </c>
-      <c r="F11" t="n">
-        <v>220.7714285850525</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>215.1150000214577</v>
+        <v>1665.945000000484</v>
       </c>
       <c r="H11" t="n">
         <v>27</v>
       </c>
       <c r="I11" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>5</v>
       </c>
-      <c r="L11" t="n">
-        <v>4</v>
-      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Valid: 27/27 trials</t>
+          <t>Valid: 20/27 trials</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>R_91jRA37lX3YUEbP</t>
+          <t>R_9x36NNwdNT2QnEB</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -3802,13 +3267,13 @@
         <v>0.6538461538461539</v>
       </c>
       <c r="E12" t="n">
-        <v>113.4836601279922</v>
+        <v>-54.52418300480235</v>
       </c>
       <c r="F12" t="n">
-        <v>1167.577777776453</v>
+        <v>1154.411111111442</v>
       </c>
       <c r="G12" t="n">
-        <v>1054.094117648461</v>
+        <v>1208.935294116245</v>
       </c>
       <c r="H12" t="n">
         <v>27</v>
@@ -3817,13 +3282,13 @@
         <v>26</v>
       </c>
       <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
         <v>4</v>
       </c>
-      <c r="K12" t="n">
-        <v>5</v>
-      </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -3834,71 +3299,71 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>R_4PvVrWZ4ldg9ZuE</t>
+          <t>R_4DfI1n39Bzpi2xH</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.08333333333333331</v>
+        <v>-0.7777777777777777</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="E13" t="n">
-        <v>-207.7622377622379</v>
+        <v>951.1416666458051</v>
       </c>
       <c r="F13" t="n">
-        <v>1553.545454545455</v>
+        <v>2394.399999976158</v>
       </c>
       <c r="G13" t="n">
-        <v>1761.307692307692</v>
+        <v>1443.258333330353</v>
       </c>
       <c r="H13" t="n">
         <v>27</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>3</v>
+      </c>
+      <c r="L13" t="n">
         <v>5</v>
       </c>
-      <c r="L13" t="n">
-        <v>4</v>
-      </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Valid: 24/27 trials</t>
+          <t>Valid: 27/27 trials</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>R_9Y3cXt4ARx4xD6T</t>
+          <t>R_9emki3uWpm88jEt</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.3076923076923077</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.5</v>
       </c>
       <c r="E14" t="n">
-        <v>-115.2091503268157</v>
+        <v>-138.5307692656149</v>
       </c>
       <c r="F14" t="n">
-        <v>1141.655555555493</v>
+        <v>1506.692307664798</v>
       </c>
       <c r="G14" t="n">
-        <v>1256.864705882309</v>
+        <v>1645.223076930413</v>
       </c>
       <c r="H14" t="n">
         <v>27</v>
@@ -3907,13 +3372,13 @@
         <v>26</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -3924,26 +3389,26 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>R_9N32winq5vbF1El</t>
+          <t>R_91tsT1u49aBUhks</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.3846153846153846</v>
+        <v>-0.6153846153846154</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="E15" t="n">
-        <v>24.81944444441854</v>
+        <v>-64.47619045178112</v>
       </c>
       <c r="F15" t="n">
-        <v>1008.874999999971</v>
+        <v>1224.700000023842</v>
       </c>
       <c r="G15" t="n">
-        <v>984.0555555555524</v>
+        <v>1289.176190475623</v>
       </c>
       <c r="H15" t="n">
         <v>27</v>
@@ -3952,13 +3417,13 @@
         <v>26</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -3969,112 +3434,116 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>R_9uYGNjx9yWaODxD</t>
+          <t>R_9LAP8tEg6HUmoat</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1851851851851852</v>
+        <v>-0.3846153846153846</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4074074074074074</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E16" t="n">
-        <v>-25.93977270004416</v>
+        <v>577.5277777777778</v>
       </c>
       <c r="F16" t="n">
-        <v>1066.272727283565</v>
+        <v>2118.25</v>
       </c>
       <c r="G16" t="n">
-        <v>1092.212499983609</v>
+        <v>1540.722222222222</v>
       </c>
       <c r="H16" t="n">
         <v>27</v>
       </c>
       <c r="I16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Valid: 27/27 trials</t>
+          <t>Valid: 26/27 trials</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>R_9OPvlHXlbPmz754</t>
+          <t>R_4GCVAoEofofJmxX</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1</v>
+        <v>-0.4074074074074074</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="E17" t="n">
+        <v>163.1894737293845</v>
+      </c>
+      <c r="F17" t="n">
+        <v>852</v>
+      </c>
       <c r="G17" t="n">
-        <v>1665.945000000484</v>
+        <v>688.8105262706155</v>
       </c>
       <c r="H17" t="n">
         <v>27</v>
       </c>
       <c r="I17" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Valid: 20/27 trials</t>
+          <t>Valid: 27/27 trials</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>R_4rHDTNQ0TLPg3iz</t>
+          <t>R_4dtvPF6tKUsY2Dr</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.5555555555555556</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E18" t="n">
-        <v>-57.07222221957318</v>
+        <v>409.380952380958</v>
       </c>
       <c r="F18" t="n">
-        <v>633.5444444417953</v>
+        <v>1149.666666666667</v>
       </c>
       <c r="G18" t="n">
-        <v>690.6166666613685</v>
+        <v>740.2857142857088</v>
       </c>
       <c r="H18" t="n">
         <v>27</v>
@@ -4083,13 +3552,13 @@
         <v>27</v>
       </c>
       <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4</v>
+      </c>
+      <c r="L18" t="n">
         <v>6</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -4100,26 +3569,26 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>R_9x36NNwdNT2QnEB</t>
+          <t>R_9bTZgIxUTHOBB65</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.3076923076923077</v>
+        <v>-0.3846153846153846</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E19" t="n">
-        <v>-54.52418300480235</v>
+        <v>196.8750000000097</v>
       </c>
       <c r="F19" t="n">
-        <v>1154.411111111442</v>
+        <v>1001.875000000015</v>
       </c>
       <c r="G19" t="n">
-        <v>1208.935294116245</v>
+        <v>805.0000000000049</v>
       </c>
       <c r="H19" t="n">
         <v>27</v>
@@ -4128,13 +3597,13 @@
         <v>26</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -4145,116 +3614,116 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>R_4DfI1n39Bzpi2xH</t>
+          <t>R_4E1hPlVcrRYDEgI</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.7777777777777777</v>
+        <v>-0.3076923076923077</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="E20" t="n">
-        <v>951.1416666458051</v>
+        <v>-194.4725490364374</v>
       </c>
       <c r="F20" t="n">
-        <v>2394.399999976158</v>
+        <v>1068.033333321412</v>
       </c>
       <c r="G20" t="n">
-        <v>1443.258333330353</v>
+        <v>1262.50588235785</v>
       </c>
       <c r="H20" t="n">
         <v>27</v>
       </c>
       <c r="I20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Valid: 27/27 trials</t>
+          <t>Valid: 26/27 trials</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>R_9emki3uWpm88jEt</t>
+          <t>R_9HiPuZ7ggaUWYXm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0.4814814814814815</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="E21" t="n">
-        <v>-138.5307692656149</v>
+        <v>787.6757142926965</v>
       </c>
       <c r="F21" t="n">
-        <v>1506.692307664798</v>
+        <v>1936.58571428912</v>
       </c>
       <c r="G21" t="n">
-        <v>1645.223076930413</v>
+        <v>1148.909999996424</v>
       </c>
       <c r="H21" t="n">
         <v>27</v>
       </c>
       <c r="I21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Valid: 26/27 trials</t>
+          <t>Valid: 27/27 trials</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>R_9gLQpOlUhCZbZf0</t>
+          <t>R_4npneE7C0d2fzFf</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.5384615384615385</v>
+        <v>-0.8461538461538463</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="E22" t="n">
-        <v>-425.51499999982</v>
+        <v>136.2916666666133</v>
       </c>
       <c r="F22" t="n">
-        <v>1360.25000000031</v>
+        <v>1265.499999999942</v>
       </c>
       <c r="G22" t="n">
-        <v>1785.76500000013</v>
+        <v>1129.208333333328</v>
       </c>
       <c r="H22" t="n">
         <v>27</v>
@@ -4263,13 +3732,13 @@
         <v>26</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -4280,161 +3749,161 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>R_91tsT1u49aBUhks</t>
+          <t>R_95Avzk7ufiikhMK</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.6153846153846154</v>
+        <v>-0.5555555555555556</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E23" t="n">
-        <v>-64.47619045178112</v>
+        <v>-28.57380951586219</v>
       </c>
       <c r="F23" t="n">
-        <v>1224.700000023842</v>
+        <v>1062.416666666667</v>
       </c>
       <c r="G23" t="n">
-        <v>1289.176190475623</v>
+        <v>1090.990476182529</v>
       </c>
       <c r="H23" t="n">
         <v>27</v>
       </c>
       <c r="I23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
         <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Valid: 26/27 trials</t>
+          <t>Valid: 27/27 trials</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>R_9LAP8tEg6HUmoat</t>
+          <t>R_4QWwuNV77zEYamm</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.3846153846153846</v>
+        <v>-0.8518518518518519</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="E24" t="n">
-        <v>577.5277777777778</v>
+        <v>-57.50000000000466</v>
       </c>
       <c r="F24" t="n">
-        <v>2118.25</v>
+        <v>960.5</v>
       </c>
       <c r="G24" t="n">
-        <v>1540.722222222222</v>
+        <v>1018.000000000005</v>
       </c>
       <c r="H24" t="n">
         <v>27</v>
       </c>
       <c r="I24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
         <v>5</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Valid: 26/27 trials</t>
+          <t>Valid: 27/27 trials</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>R_4GCVAoEofofJmxX</t>
+          <t>R_4Nn2YPE5XSoLk77</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.4074074074074074</v>
+        <v>-0.1538461538461538</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="E25" t="n">
-        <v>163.1894737293845</v>
+        <v>-42.29454545392218</v>
       </c>
       <c r="F25" t="n">
-        <v>852</v>
+        <v>1206.945454546674</v>
       </c>
       <c r="G25" t="n">
-        <v>688.8105262706155</v>
+        <v>1249.240000000596</v>
       </c>
       <c r="H25" t="n">
         <v>27</v>
       </c>
       <c r="I25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Valid: 27/27 trials</t>
+          <t>Valid: 26/27 trials</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>R_4dtvPF6tKUsY2Dr</t>
+          <t>R_92mbrhLaUBLIZyA</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.5555555555555556</v>
+        <v>-0.4814814814814815</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="E26" t="n">
-        <v>409.380952380958</v>
+        <v>328.035714285711</v>
       </c>
       <c r="F26" t="n">
-        <v>1149.666666666667</v>
+        <v>1553.285714285723</v>
       </c>
       <c r="G26" t="n">
-        <v>740.2857142857088</v>
+        <v>1225.250000000012</v>
       </c>
       <c r="H26" t="n">
         <v>27</v>
@@ -4443,7 +3912,7 @@
         <v>27</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
         <v>4</v>
@@ -4460,7 +3929,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>R_9bTZgIxUTHOBB65</t>
+          <t>R_41tTqc4rClQAQ4c</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -4473,13 +3942,13 @@
         <v>0.6923076923076923</v>
       </c>
       <c r="E27" t="n">
-        <v>196.8750000000097</v>
+        <v>54.66944444738328</v>
       </c>
       <c r="F27" t="n">
-        <v>1001.875000000015</v>
+        <v>1061.825000001118</v>
       </c>
       <c r="G27" t="n">
-        <v>805.0000000000049</v>
+        <v>1007.155555553734</v>
       </c>
       <c r="H27" t="n">
         <v>27</v>
@@ -4494,7 +3963,7 @@
         <v>6</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -4505,275 +3974,251 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>R_459tvSmsiMQmAJb</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
+          <t>R_49TyR8AUyP9f0KR</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.3076923076923077</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-201.1581699793634</v>
+      </c>
+      <c r="F28" t="n">
+        <v>883.3888888623979</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1084.547058841761</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Error: No trial data available</t>
+          <t>Valid: 26/27 trials</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>R_9GEAlR8ckucpR5i</t>
+          <t>R_99UYrIivDcdeF7r</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.1111111111111112</v>
+        <v>-0.6153846153846154</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="E29" t="n">
-        <v>-70.98666667143505</v>
+        <v>-111.7428571428488</v>
       </c>
       <c r="F29" t="n">
-        <v>167.9333332777023</v>
+        <v>1380.4</v>
       </c>
       <c r="G29" t="n">
-        <v>238.9199999491374</v>
+        <v>1492.142857142849</v>
       </c>
       <c r="H29" t="n">
         <v>27</v>
       </c>
       <c r="I29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J29" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Valid: 27/27 trials</t>
+          <t>Valid: 26/27 trials</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>R_95AaIqXMdbZ4Fhr</t>
+          <t>R_9d0I0cLEUygFnzD</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.5652173913043479</v>
+        <v>-0.9259259259259258</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2173913043478261</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="E30" t="n">
-        <v>-68.11333332591585</v>
+        <v>1245.296153846018</v>
       </c>
       <c r="F30" t="n">
-        <v>2113.820000004768</v>
+        <v>2191.5</v>
       </c>
       <c r="G30" t="n">
-        <v>2181.933333330684</v>
+        <v>946.2038461539822</v>
       </c>
       <c r="H30" t="n">
         <v>27</v>
       </c>
       <c r="I30" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Valid: 23/27 trials</t>
+          <t>Valid: 27/27 trials</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>R_4lPSocYI5nk7Coh</t>
+          <t>R_47kRU4DvHWNnjGG</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.3846153846153846</v>
+        <v>-0.7037037037037037</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="E31" t="n">
-        <v>337.2722222266925</v>
+        <v>-184.7836956342926</v>
       </c>
       <c r="F31" t="n">
-        <v>1699.89999999851</v>
+        <v>1087.825000017881</v>
       </c>
       <c r="G31" t="n">
-        <v>1362.627777771817</v>
+        <v>1272.608695652174</v>
       </c>
       <c r="H31" t="n">
         <v>27</v>
       </c>
       <c r="I31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J31" t="n">
+        <v>2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" t="n">
         <v>3</v>
       </c>
-      <c r="K31" t="n">
-        <v>5</v>
-      </c>
-      <c r="L31" t="n">
-        <v>4</v>
-      </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Valid: 26/27 trials</t>
+          <t>Valid: 27/27 trials</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>R_4rHse7kHHEjzHly</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
+          <t>R_9cj5AYT2isbQ025</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.4074074074074074</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.2962962962962963</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="E32" t="n">
+        <v>310.054605262452</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1879.01249999553</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1568.957894733078</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Error: No trial data available</t>
+          <t>Valid: 27/27 trials</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>R_4DYHJAe9FwcAbYM</t>
+          <t>R_96nUPcB7vcJX3jf</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.4074074074074074</v>
+        <v>-0.4814814814814815</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="E33" t="n">
-        <v>-30.48421052715889</v>
+        <v>-37.95071428572453</v>
       </c>
       <c r="F33" t="n">
-        <v>1268.799999998882</v>
+        <v>852.9142857142807</v>
       </c>
       <c r="G33" t="n">
-        <v>1299.284210526041</v>
+        <v>890.8650000000052</v>
       </c>
       <c r="H33" t="n">
         <v>27</v>
@@ -4782,13 +4227,13 @@
         <v>27</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
         <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -4799,275 +4244,251 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>R_4E1hPlVcrRYDEgI</t>
+          <t>R_4af1NjqrrNzcgut</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.3076923076923077</v>
+        <v>-0.2592592592592593</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="E34" t="n">
-        <v>-194.4725490364374</v>
+        <v>-57.98411764717275</v>
       </c>
       <c r="F34" t="n">
-        <v>1068.033333321412</v>
+        <v>1057.309999999776</v>
       </c>
       <c r="G34" t="n">
-        <v>1262.50588235785</v>
+        <v>1115.294117646949</v>
       </c>
       <c r="H34" t="n">
         <v>27</v>
       </c>
       <c r="I34" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
         <v>6</v>
       </c>
       <c r="L34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Valid: 26/27 trials</t>
+          <t>Valid: 27/27 trials</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>R_9IrA4sK4uNKxOU1</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
+          <t>R_9ctFQKbw2qIyZBw</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.3846153846153846</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="E35" t="n">
+        <v>54.23888895577852</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1240.750000029802</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1186.511111074024</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Error: No trial data available</t>
+          <t>Valid: 26/27 trials</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>R_4flYM0NAGQpPrrZ</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
+          <t>R_4BsQya8zBjRULSx</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.8461538461538463</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-433.3749999999975</v>
+      </c>
+      <c r="F36" t="n">
+        <v>907</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1340.374999999997</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Error: No trial data available</t>
+          <t>Valid: 26/27 trials</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>R_9HiPuZ7ggaUWYXm</t>
+          <t>R_9UVGly5LAKAE4DH</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.4814814814814815</v>
+        <v>-0.1538461538461538</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2592592592592592</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="E37" t="n">
-        <v>787.6757142926965</v>
+        <v>65.87090909065341</v>
       </c>
       <c r="F37" t="n">
-        <v>1936.58571428912</v>
+        <v>1234.390909090765</v>
       </c>
       <c r="G37" t="n">
-        <v>1148.909999996424</v>
+        <v>1168.520000000112</v>
       </c>
       <c r="H37" t="n">
         <v>27</v>
       </c>
       <c r="I37" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Valid: 27/27 trials</t>
+          <t>Valid: 26/27 trials</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>R_4npneE7C0d2fzFf</t>
+          <t>R_9hLtTGFf64ROzgA</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.8461538461538463</v>
+        <v>-0.4074074074074074</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="E38" t="n">
-        <v>136.2916666666133</v>
+        <v>-62.92894736559765</v>
       </c>
       <c r="F38" t="n">
-        <v>1265.499999999942</v>
+        <v>714.9500000178814</v>
       </c>
       <c r="G38" t="n">
-        <v>1129.208333333328</v>
+        <v>777.878947383479</v>
       </c>
       <c r="H38" t="n">
         <v>27</v>
       </c>
       <c r="I38" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Valid: 26/27 trials</t>
+          <t>Valid: 27/27 trials</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>R_95Avzk7ufiikhMK</t>
+          <t>R_438xPgSQurWsGJ7</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.5555555555555556</v>
+        <v>-0.6296296296296295</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="E39" t="n">
-        <v>-28.57380951586219</v>
+        <v>134.6272727272781</v>
       </c>
       <c r="F39" t="n">
-        <v>1062.416666666667</v>
+        <v>1577.4</v>
       </c>
       <c r="G39" t="n">
-        <v>1090.990476182529</v>
+        <v>1442.772727272722</v>
       </c>
       <c r="H39" t="n">
         <v>27</v>
@@ -5076,13 +4497,13 @@
         <v>27</v>
       </c>
       <c r="J39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -5093,251 +4514,251 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>R_4QWwuNV77zEYamm</t>
+          <t>R_5EnHXfM9Ih1jcUw</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.8518518518518519</v>
+        <v>-0.3846153846153846</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9259259259259259</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E40" t="n">
-        <v>-57.50000000000466</v>
+        <v>28.47916667328946</v>
       </c>
       <c r="F40" t="n">
-        <v>960.5</v>
+        <v>1103.062500059605</v>
       </c>
       <c r="G40" t="n">
-        <v>1018.000000000005</v>
+        <v>1074.583333386315</v>
       </c>
       <c r="H40" t="n">
         <v>27</v>
       </c>
       <c r="I40" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Valid: 27/27 trials</t>
+          <t>Valid: 26/27 trials</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>R_4Nn2YPE5XSoLk77</t>
+          <t>R_4ooRca600URzSMF</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.1538461538461538</v>
+        <v>-0.2592592592592593</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5769230769230769</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="E41" t="n">
-        <v>-42.29454545392218</v>
+        <v>32.67058823529123</v>
       </c>
       <c r="F41" t="n">
-        <v>1206.945454546674</v>
+        <v>1090.199999999997</v>
       </c>
       <c r="G41" t="n">
-        <v>1249.240000000596</v>
+        <v>1057.529411764706</v>
       </c>
       <c r="H41" t="n">
         <v>27</v>
       </c>
       <c r="I41" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J41" t="n">
         <v>5</v>
       </c>
       <c r="K41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L41" t="n">
         <v>4</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Valid: 26/27 trials</t>
+          <t>Valid: 27/27 trials</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>R_92mbrhLaUBLIZyA</t>
+          <t>R_9z60gjDTdtBwz7i</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.4814814814814815</v>
+        <v>-0.6923076923076923</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2592592592592592</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="E42" t="n">
-        <v>328.035714285711</v>
+        <v>761.4999999999947</v>
       </c>
       <c r="F42" t="n">
-        <v>1553.285714285723</v>
+        <v>1714</v>
       </c>
       <c r="G42" t="n">
-        <v>1225.250000000012</v>
+        <v>952.5000000000053</v>
       </c>
       <c r="H42" t="n">
         <v>27</v>
       </c>
       <c r="I42" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
         <v>3</v>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>4</v>
       </c>
-      <c r="L42" t="n">
-        <v>6</v>
-      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Valid: 27/27 trials</t>
+          <t>Valid: 26/27 trials</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>R_4lCiksiXKcfJDNf</t>
+          <t>R_4z5hWHzjGPmlo3v</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.2307692307692308</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E43" t="n">
-        <v>255.9722222221187</v>
+        <v>299.7124999999971</v>
       </c>
       <c r="F43" t="n">
-        <v>1705.944444445272</v>
+        <v>1541.399999999997</v>
       </c>
       <c r="G43" t="n">
-        <v>1449.972222223153</v>
+        <v>1241.6875</v>
       </c>
       <c r="H43" t="n">
         <v>27</v>
       </c>
       <c r="I43" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J43" t="n">
         <v>4</v>
       </c>
       <c r="K43" t="n">
+        <v>6</v>
+      </c>
+      <c r="L43" t="n">
         <v>5</v>
       </c>
-      <c r="L43" t="n">
-        <v>4</v>
-      </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Valid: 27/27 trials</t>
+          <t>Valid: 26/27 trials</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>R_41tTqc4rClQAQ4c</t>
+          <t>R_4R46XO9OwMarEXe</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.3846153846153846</v>
+        <v>-0.5555555555555556</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E44" t="n">
-        <v>54.66944444738328</v>
+        <v>205.5095238112622</v>
       </c>
       <c r="F44" t="n">
-        <v>1061.825000001118</v>
+        <v>1480.633333334078</v>
       </c>
       <c r="G44" t="n">
-        <v>1007.155555553734</v>
+        <v>1275.123809522816</v>
       </c>
       <c r="H44" t="n">
         <v>27</v>
       </c>
       <c r="I44" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J44" t="n">
         <v>2</v>
       </c>
       <c r="K44" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Valid: 26/27 trials</t>
+          <t>Valid: 27/27 trials</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>R_49TyR8AUyP9f0KR</t>
+          <t>R_4pyzOQaqk31zidB</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.3076923076923077</v>
+        <v>-0.8461538461538463</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="E45" t="n">
-        <v>-201.1581699793634</v>
+        <v>-1039.508333340287</v>
       </c>
       <c r="F45" t="n">
-        <v>883.3888888623979</v>
+        <v>693</v>
       </c>
       <c r="G45" t="n">
-        <v>1084.547058841761</v>
+        <v>1732.508333340287</v>
       </c>
       <c r="H45" t="n">
         <v>27</v>
@@ -5346,10 +4767,10 @@
         <v>26</v>
       </c>
       <c r="J45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
         <v>5</v>
@@ -5363,522 +4784,45 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>R_99UYrIivDcdeF7r</t>
+          <t>R_9RXtm3TtL486t6z</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.6153846153846154</v>
+        <v>-0.8518518518518519</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="E46" t="n">
-        <v>-111.7428571428488</v>
+        <v>-236.0479999327659</v>
       </c>
       <c r="F46" t="n">
-        <v>1380.4</v>
+        <v>524.5000000596046</v>
       </c>
       <c r="G46" t="n">
-        <v>1492.142857142849</v>
+        <v>760.5479999923706</v>
       </c>
       <c r="H46" t="n">
         <v>27</v>
       </c>
       <c r="I46" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
         <v>2</v>
       </c>
-      <c r="K46" t="n">
-        <v>3</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3</v>
-      </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Valid: 26/27 trials</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>R_9d0I0cLEUygFnzD</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>-0.9259259259259258</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.03703703703703703</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.9629629629629629</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1245.296153846018</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2191.5</v>
-      </c>
-      <c r="G47" t="n">
-        <v>946.2038461539822</v>
-      </c>
-      <c r="H47" t="n">
-        <v>27</v>
-      </c>
-      <c r="I47" t="n">
-        <v>27</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1</v>
-      </c>
-      <c r="L47" t="n">
-        <v>5</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
           <t>Valid: 27/27 trials</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>R_425z6FKj0bv5S0N</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Error: No trial data available</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>R_9kBu3A4VzYEc7u4</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>Error: No trial data available</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>R_47kRU4DvHWNnjGG</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>-0.7037037037037037</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.1481481481481481</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="E50" t="n">
-        <v>-184.7836956342926</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1087.825000017881</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1272.608695652174</v>
-      </c>
-      <c r="H50" t="n">
-        <v>27</v>
-      </c>
-      <c r="I50" t="n">
-        <v>27</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>Valid: 27/27 trials</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>R_9cj5AYT2isbQ025</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>-0.4074074074074074</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.7037037037037037</v>
-      </c>
-      <c r="E51" t="n">
-        <v>310.054605262452</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1879.01249999553</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1568.957894733078</v>
-      </c>
-      <c r="H51" t="n">
-        <v>27</v>
-      </c>
-      <c r="I51" t="n">
-        <v>27</v>
-      </c>
-      <c r="J51" t="n">
-        <v>4</v>
-      </c>
-      <c r="K51" t="n">
-        <v>4</v>
-      </c>
-      <c r="L51" t="n">
-        <v>4</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Valid: 27/27 trials</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>R_4emUmach5eEaD7j</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Error: No trial data available</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>R_4LTZEyvJAjeBq3o</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>Error: No trial data available</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>R_9EoZrU2zlZGVxmh</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>Error: No trial data available</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>R_9FLpP7aU380tJw8</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>Error: No trial data available</t>
         </is>
       </c>
     </row>
@@ -5921,7 +4865,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -5933,7 +4877,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -5945,7 +4889,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5961,7 +4905,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-0.481</t>
+          <t>-0.489</t>
         </is>
       </c>
     </row>
@@ -5973,7 +4917,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.242</t>
+          <t>0.247</t>
         </is>
       </c>
     </row>
@@ -6025,7 +4969,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>116.939</t>
+          <t>84.681</t>
         </is>
       </c>
     </row>
@@ -6037,7 +4981,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>332.214</t>
+          <t>376.897</t>
         </is>
       </c>
     </row>
@@ -6049,7 +4993,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-425.515</t>
+          <t>-1039.508</t>
         </is>
       </c>
     </row>
@@ -6073,7 +5017,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4.005</t>
+          <t>15.238</t>
         </is>
       </c>
     </row>
